--- a/team_specific_matrix/UNC Asheville_A.xlsx
+++ b/team_specific_matrix/UNC Asheville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1869436201780415</v>
+        <v>0.1947743467933492</v>
       </c>
       <c r="C2">
-        <v>0.5934718100890207</v>
+        <v>0.5676959619952494</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01780415430267062</v>
+        <v>0.02137767220902613</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1097922848664688</v>
+        <v>0.1258907363420428</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09198813056379822</v>
+        <v>0.09026128266033254</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03846153846153846</v>
+        <v>0.04</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01923076923076923</v>
+        <v>0.016</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8269230769230769</v>
+        <v>0.796</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1153846153846154</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6388888888888888</v>
+        <v>0.6585365853658537</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3611111111111111</v>
+        <v>0.3414634146341464</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.095</v>
+        <v>0.07722007722007722</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005</v>
+        <v>0.003861003861003861</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.075</v>
+        <v>0.07335907335907337</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.29</v>
+        <v>0.3011583011583012</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.005</v>
+        <v>0.01158301158301158</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.155</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="R6">
-        <v>0.065</v>
+        <v>0.0694980694980695</v>
       </c>
       <c r="S6">
-        <v>0.31</v>
+        <v>0.2818532818532818</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1694915254237288</v>
+        <v>0.1596244131455399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01129943502824859</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04519774011299435</v>
+        <v>0.05164319248826291</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1016949152542373</v>
+        <v>0.09389671361502347</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03954802259887006</v>
+        <v>0.03286384976525822</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1977401129943503</v>
+        <v>0.1784037558685446</v>
       </c>
       <c r="R7">
-        <v>0.096045197740113</v>
+        <v>0.1220657276995305</v>
       </c>
       <c r="S7">
-        <v>0.3389830508474576</v>
+        <v>0.352112676056338</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1111111111111111</v>
+        <v>0.1204081632653061</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02222222222222222</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E8">
-        <v>0.004938271604938272</v>
+        <v>0.004081632653061225</v>
       </c>
       <c r="F8">
-        <v>0.08148148148148149</v>
+        <v>0.07551020408163266</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1185185185185185</v>
+        <v>0.1183673469387755</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02716049382716049</v>
+        <v>0.02244897959183673</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1728395061728395</v>
+        <v>0.1775510204081633</v>
       </c>
       <c r="R8">
-        <v>0.07901234567901234</v>
+        <v>0.07959183673469387</v>
       </c>
       <c r="S8">
-        <v>0.382716049382716</v>
+        <v>0.3816326530612245</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.147887323943662</v>
+        <v>0.1421319796954315</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.007042253521126761</v>
+        <v>0.005076142131979695</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07746478873239436</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1056338028169014</v>
+        <v>0.09137055837563451</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01408450704225352</v>
+        <v>0.01522842639593909</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1971830985915493</v>
+        <v>0.1979695431472081</v>
       </c>
       <c r="R9">
-        <v>0.1126760563380282</v>
+        <v>0.1116751269035533</v>
       </c>
       <c r="S9">
-        <v>0.3380281690140845</v>
+        <v>0.3604060913705584</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1465028355387524</v>
+        <v>0.1406480117820324</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02268431001890359</v>
+        <v>0.02209131075110457</v>
       </c>
       <c r="E10">
-        <v>0.001890359168241966</v>
+        <v>0.001472754050073638</v>
       </c>
       <c r="F10">
-        <v>0.05765595463137996</v>
+        <v>0.05743740795287187</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1068052930056711</v>
+        <v>0.1053019145802651</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01984877126654064</v>
+        <v>0.0235640648011782</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1918714555765595</v>
+        <v>0.203240058910162</v>
       </c>
       <c r="R10">
-        <v>0.08601134215500945</v>
+        <v>0.09131075110456553</v>
       </c>
       <c r="S10">
-        <v>0.3667296786389414</v>
+        <v>0.3549337260677467</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1466165413533835</v>
+        <v>0.1467065868263473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09774436090225563</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="K11">
-        <v>0.2105263157894737</v>
+        <v>0.2005988023952096</v>
       </c>
       <c r="L11">
-        <v>0.5338345864661654</v>
+        <v>0.5449101796407185</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0112781954887218</v>
+        <v>0.01197604790419162</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7876712328767124</v>
+        <v>0.7553191489361702</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1506849315068493</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="K12">
-        <v>0.00684931506849315</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="L12">
-        <v>0.0273972602739726</v>
+        <v>0.02659574468085106</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0273972602739726</v>
+        <v>0.02659574468085106</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005747126436781609</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1666666666666667</v>
+        <v>0.1535269709543569</v>
       </c>
       <c r="I15">
-        <v>0.04597701149425287</v>
+        <v>0.05809128630705394</v>
       </c>
       <c r="J15">
-        <v>0.3563218390804598</v>
+        <v>0.3319502074688797</v>
       </c>
       <c r="K15">
-        <v>0.06896551724137931</v>
+        <v>0.06639004149377593</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005747126436781609</v>
+        <v>0.008298755186721992</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.02873563218390805</v>
+        <v>0.04564315352697095</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3218390804597701</v>
+        <v>0.3112033195020747</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02272727272727273</v>
+        <v>0.02641509433962264</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1363636363636364</v>
+        <v>0.1283018867924528</v>
       </c>
       <c r="I16">
-        <v>0.1045454545454545</v>
+        <v>0.1094339622641509</v>
       </c>
       <c r="J16">
-        <v>0.4681818181818182</v>
+        <v>0.4679245283018868</v>
       </c>
       <c r="K16">
-        <v>0.1090909090909091</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="N16">
-        <v>0.004545454545454545</v>
+        <v>0.003773584905660377</v>
       </c>
       <c r="O16">
-        <v>0.05</v>
+        <v>0.04905660377358491</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1045454545454545</v>
+        <v>0.1169811320754717</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.0326975476839237</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1989100817438692</v>
+        <v>0.1780538302277433</v>
       </c>
       <c r="I17">
-        <v>0.07629427792915532</v>
+        <v>0.07660455486542443</v>
       </c>
       <c r="J17">
-        <v>0.337874659400545</v>
+        <v>0.3768115942028986</v>
       </c>
       <c r="K17">
-        <v>0.1362397820163488</v>
+        <v>0.1325051759834369</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.04359673024523161</v>
+        <v>0.03312629399585922</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04632152588555858</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1280653950953679</v>
+        <v>0.1221532091097308</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02352941176470588</v>
+        <v>0.02183406113537118</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1764705882352941</v>
+        <v>0.1572052401746725</v>
       </c>
       <c r="I18">
-        <v>0.04705882352941176</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="J18">
-        <v>0.4647058823529412</v>
+        <v>0.462882096069869</v>
       </c>
       <c r="K18">
-        <v>0.08823529411764706</v>
+        <v>0.07860262008733625</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.005882352941176471</v>
+        <v>0.004366812227074236</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.04117647058823529</v>
+        <v>0.06550218340611354</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1529411764705882</v>
+        <v>0.1441048034934498</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0205799812909261</v>
+        <v>0.02384500745156483</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2310570626753976</v>
+        <v>0.2250372578241431</v>
       </c>
       <c r="I19">
-        <v>0.07109448082319925</v>
+        <v>0.07749627421758569</v>
       </c>
       <c r="J19">
-        <v>0.3545369504209542</v>
+        <v>0.3524590163934426</v>
       </c>
       <c r="K19">
-        <v>0.09448082319925163</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02712815715622077</v>
+        <v>0.02235469448584203</v>
       </c>
       <c r="N19">
-        <v>0.0009354536950420954</v>
+        <v>0.0007451564828614009</v>
       </c>
       <c r="O19">
-        <v>0.07015902712815715</v>
+        <v>0.07451564828614009</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1300280636108513</v>
+        <v>0.1251862891207154</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UNC Asheville_A.xlsx
+++ b/team_specific_matrix/UNC Asheville_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1947743467933492</v>
+        <v>0.1954022988505747</v>
       </c>
       <c r="C2">
-        <v>0.5676959619952494</v>
+        <v>0.5655172413793104</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02137767220902613</v>
+        <v>0.02068965517241379</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1258907363420428</v>
+        <v>0.128735632183908</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09026128266033254</v>
+        <v>0.0896551724137931</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04</v>
+        <v>0.0390625</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.016</v>
+        <v>0.015625</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.796</v>
+        <v>0.80078125</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.148</v>
+        <v>0.14453125</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6585365853658537</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3414634146341464</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07722007722007722</v>
+        <v>0.07942238267148015</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.003861003861003861</v>
+        <v>0.003610108303249098</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07335907335907337</v>
+        <v>0.07220216606498195</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3011583011583012</v>
+        <v>0.2996389891696751</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01158301158301158</v>
+        <v>0.01083032490974729</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1814671814671815</v>
+        <v>0.1913357400722022</v>
       </c>
       <c r="R6">
-        <v>0.0694980694980695</v>
+        <v>0.06498194945848375</v>
       </c>
       <c r="S6">
-        <v>0.2818532818532818</v>
+        <v>0.2779783393501805</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1596244131455399</v>
+        <v>0.1569506726457399</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.009389671361502348</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05164319248826291</v>
+        <v>0.05381165919282511</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09389671361502347</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03286384976525822</v>
+        <v>0.03139013452914798</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1784037558685446</v>
+        <v>0.1838565022421525</v>
       </c>
       <c r="R7">
-        <v>0.1220657276995305</v>
+        <v>0.1210762331838565</v>
       </c>
       <c r="S7">
-        <v>0.352112676056338</v>
+        <v>0.3497757847533632</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1204081632653061</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02040816326530612</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="E8">
-        <v>0.004081632653061225</v>
+        <v>0.003831417624521073</v>
       </c>
       <c r="F8">
-        <v>0.07551020408163266</v>
+        <v>0.07279693486590039</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1183673469387755</v>
+        <v>0.1149425287356322</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02244897959183673</v>
+        <v>0.0210727969348659</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1775510204081633</v>
+        <v>0.1781609195402299</v>
       </c>
       <c r="R8">
-        <v>0.07959183673469387</v>
+        <v>0.08237547892720307</v>
       </c>
       <c r="S8">
-        <v>0.3816326530612245</v>
+        <v>0.3927203065134099</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1421319796954315</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005076142131979695</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.07614213197969544</v>
+        <v>0.07943925233644859</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09137055837563451</v>
+        <v>0.09813084112149532</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01522842639593909</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1979695431472081</v>
+        <v>0.1869158878504673</v>
       </c>
       <c r="R9">
-        <v>0.1116751269035533</v>
+        <v>0.1121495327102804</v>
       </c>
       <c r="S9">
-        <v>0.3604060913705584</v>
+        <v>0.3691588785046729</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1406480117820324</v>
+        <v>0.1367106176266482</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02209131075110457</v>
+        <v>0.02081887578070784</v>
       </c>
       <c r="E10">
-        <v>0.001472754050073638</v>
+        <v>0.001387925052047189</v>
       </c>
       <c r="F10">
-        <v>0.05743740795287187</v>
+        <v>0.05829285218598196</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1053019145802651</v>
+        <v>0.1068702290076336</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0235640648011782</v>
+        <v>0.02290076335877863</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.203240058910162</v>
+        <v>0.2061068702290076</v>
       </c>
       <c r="R10">
-        <v>0.09131075110456553</v>
+        <v>0.09368494101318529</v>
       </c>
       <c r="S10">
-        <v>0.3549337260677467</v>
+        <v>0.3532269257460097</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1467065868263473</v>
+        <v>0.1420454545454546</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09580838323353294</v>
+        <v>0.09943181818181818</v>
       </c>
       <c r="K11">
-        <v>0.2005988023952096</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="L11">
-        <v>0.5449101796407185</v>
+        <v>0.5426136363636364</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01197604790419162</v>
+        <v>0.01136363636363636</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7553191489361702</v>
+        <v>0.7626262626262627</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1702127659574468</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="K12">
-        <v>0.02127659574468085</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="L12">
-        <v>0.02659574468085106</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02659574468085106</v>
+        <v>0.02525252525252525</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6458333333333334</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02489626556016597</v>
+        <v>0.02788844621513944</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1535269709543569</v>
+        <v>0.1593625498007968</v>
       </c>
       <c r="I15">
-        <v>0.05809128630705394</v>
+        <v>0.05577689243027888</v>
       </c>
       <c r="J15">
-        <v>0.3319502074688797</v>
+        <v>0.3306772908366534</v>
       </c>
       <c r="K15">
-        <v>0.06639004149377593</v>
+        <v>0.06374501992031872</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.008298755186721992</v>
+        <v>0.00796812749003984</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04564315352697095</v>
+        <v>0.04780876494023904</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3112033195020747</v>
+        <v>0.3067729083665339</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02641509433962264</v>
+        <v>0.02545454545454546</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1283018867924528</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="I16">
-        <v>0.1094339622641509</v>
+        <v>0.1090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.4679245283018868</v>
+        <v>0.4763636363636364</v>
       </c>
       <c r="K16">
-        <v>0.09433962264150944</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.003773584905660377</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="N16">
-        <v>0.003773584905660377</v>
+        <v>0.003636363636363636</v>
       </c>
       <c r="O16">
-        <v>0.04905660377358491</v>
+        <v>0.04727272727272727</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1169811320754717</v>
+        <v>0.1163636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.03105590062111801</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1780538302277433</v>
+        <v>0.1807692307692308</v>
       </c>
       <c r="I17">
-        <v>0.07660455486542443</v>
+        <v>0.07884615384615384</v>
       </c>
       <c r="J17">
-        <v>0.3768115942028986</v>
+        <v>0.3769230769230769</v>
       </c>
       <c r="K17">
-        <v>0.1325051759834369</v>
+        <v>0.1269230769230769</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.03312629399585922</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.04968944099378882</v>
+        <v>0.04807692307692308</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1221532091097308</v>
+        <v>0.1269230769230769</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02183406113537118</v>
+        <v>0.0242914979757085</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1572052401746725</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="I18">
-        <v>0.06550218340611354</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="J18">
-        <v>0.462882096069869</v>
+        <v>0.4534412955465587</v>
       </c>
       <c r="K18">
-        <v>0.07860262008733625</v>
+        <v>0.08906882591093117</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004366812227074236</v>
+        <v>0.004048582995951417</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06550218340611354</v>
+        <v>0.06072874493927125</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1441048034934498</v>
+        <v>0.1497975708502024</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02384500745156483</v>
+        <v>0.02309307207837649</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2250372578241431</v>
+        <v>0.2239328201539538</v>
       </c>
       <c r="I19">
-        <v>0.07749627421758569</v>
+        <v>0.08047585724282715</v>
       </c>
       <c r="J19">
-        <v>0.3524590163934426</v>
+        <v>0.3526941917424772</v>
       </c>
       <c r="K19">
-        <v>0.09836065573770492</v>
+        <v>0.09727081875437368</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02235469448584203</v>
+        <v>0.02169349195241427</v>
       </c>
       <c r="N19">
-        <v>0.0007451564828614009</v>
+        <v>0.0006997900629811056</v>
       </c>
       <c r="O19">
-        <v>0.07451564828614009</v>
+        <v>0.07417774667599721</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1251862891207154</v>
+        <v>0.125962211336599</v>
       </c>
     </row>
   </sheetData>
